--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Cd248</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H2">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I2">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J2">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.740899846988782</v>
+        <v>1.1961845</v>
       </c>
       <c r="N2">
-        <v>0.740899846988782</v>
+        <v>2.392369</v>
       </c>
       <c r="O2">
-        <v>0.01643711263522434</v>
+        <v>0.02404047019001854</v>
       </c>
       <c r="P2">
-        <v>0.01643711263522434</v>
+        <v>0.01736464267462396</v>
       </c>
       <c r="Q2">
-        <v>40.8084817262884</v>
+        <v>66.09346699412626</v>
       </c>
       <c r="R2">
-        <v>40.8084817262884</v>
+        <v>264.373867976505</v>
       </c>
       <c r="S2">
-        <v>0.01022436101196837</v>
+        <v>0.01490952674282175</v>
       </c>
       <c r="T2">
-        <v>0.01022436101196837</v>
+        <v>0.00910297053919413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H3">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I3">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J3">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.9838404991924</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N3">
-        <v>32.9838404991924</v>
+        <v>104.359853</v>
       </c>
       <c r="O3">
-        <v>0.7317576101965484</v>
+        <v>0.6991284747687938</v>
       </c>
       <c r="P3">
-        <v>0.7317576101965484</v>
+        <v>0.7574799526834212</v>
       </c>
       <c r="Q3">
-        <v>1816.73738730639</v>
+        <v>1922.084901274947</v>
       </c>
       <c r="R3">
-        <v>1816.73738730639</v>
+        <v>11532.50940764968</v>
       </c>
       <c r="S3">
-        <v>0.4551744668264621</v>
+        <v>0.4335886365301357</v>
       </c>
       <c r="T3">
-        <v>0.4551744668264621</v>
+        <v>0.3970895239545531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H4">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I4">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J4">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.04131440276999</v>
+        <v>0.07777066666666667</v>
       </c>
       <c r="N4">
-        <v>2.04131440276999</v>
+        <v>0.233312</v>
       </c>
       <c r="O4">
-        <v>0.04528724752556745</v>
+        <v>0.00156300586879187</v>
       </c>
       <c r="P4">
-        <v>0.04528724752556745</v>
+        <v>0.001693459291481317</v>
       </c>
       <c r="Q4">
-        <v>112.4348207677653</v>
+        <v>4.29710716904</v>
       </c>
       <c r="R4">
-        <v>112.4348207677653</v>
+        <v>25.78264301424</v>
       </c>
       <c r="S4">
-        <v>0.02816998205314382</v>
+        <v>0.0009693519975168903</v>
       </c>
       <c r="T4">
-        <v>0.02816998205314382</v>
+        <v>0.0008877527933360035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.0796195898071</v>
+        <v>55.2535725</v>
       </c>
       <c r="H5">
-        <v>55.0796195898071</v>
+        <v>110.507145</v>
       </c>
       <c r="I5">
-        <v>0.6220290168273116</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J5">
-        <v>0.6220290168273116</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>9.30876243037822</v>
+        <v>0.06799000000000001</v>
       </c>
       <c r="N5">
-        <v>9.30876243037822</v>
+        <v>0.20397</v>
       </c>
       <c r="O5">
-        <v>0.2065180296426599</v>
+        <v>0.001366437675976708</v>
       </c>
       <c r="P5">
-        <v>0.2065180296426599</v>
+        <v>0.001480484894405106</v>
       </c>
       <c r="Q5">
-        <v>512.7230935171206</v>
+        <v>3.756690394275001</v>
       </c>
       <c r="R5">
-        <v>512.7230935171206</v>
+        <v>22.54014236565</v>
       </c>
       <c r="S5">
-        <v>0.1284602069357373</v>
+        <v>0.0008474434531165142</v>
       </c>
       <c r="T5">
-        <v>0.1284602069357373</v>
+        <v>0.000776106403685814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.804712976865004</v>
+        <v>55.2535725</v>
       </c>
       <c r="H6">
-        <v>0.804712976865004</v>
+        <v>110.507145</v>
       </c>
       <c r="I6">
-        <v>0.009087840939267289</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J6">
-        <v>0.009087840939267289</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.740899846988782</v>
+        <v>3.325815666666667</v>
       </c>
       <c r="N6">
-        <v>0.740899846988782</v>
+        <v>9.977447000000002</v>
       </c>
       <c r="O6">
-        <v>0.01643711263522434</v>
+        <v>0.066841003534151</v>
       </c>
       <c r="P6">
-        <v>0.01643711263522434</v>
+        <v>0.07241976549604132</v>
       </c>
       <c r="Q6">
-        <v>0.5962117214291687</v>
+        <v>183.7631970598025</v>
       </c>
       <c r="R6">
-        <v>0.5962117214291687</v>
+        <v>1102.579182358815</v>
       </c>
       <c r="S6">
-        <v>0.0001493778651297393</v>
+        <v>0.04145375368420358</v>
       </c>
       <c r="T6">
-        <v>0.0001493778651297393</v>
+        <v>0.03796421291923231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.804712976865004</v>
+        <v>55.2535725</v>
       </c>
       <c r="H7">
-        <v>0.804712976865004</v>
+        <v>110.507145</v>
       </c>
       <c r="I7">
-        <v>0.009087840939267289</v>
+        <v>0.6201844899444644</v>
       </c>
       <c r="J7">
-        <v>0.009087840939267289</v>
+        <v>0.5242244663345057</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.9838404991924</v>
+        <v>10.302739</v>
       </c>
       <c r="N7">
-        <v>32.9838404991924</v>
+        <v>20.605478</v>
       </c>
       <c r="O7">
-        <v>0.7317576101965484</v>
+        <v>0.2070606079622679</v>
       </c>
       <c r="P7">
-        <v>0.7317576101965484</v>
+        <v>0.1495616949600272</v>
       </c>
       <c r="Q7">
-        <v>26.54252447654559</v>
+        <v>569.2631362850776</v>
       </c>
       <c r="R7">
-        <v>26.54252447654559</v>
+        <v>2277.05254514031</v>
       </c>
       <c r="S7">
-        <v>0.006650096767564587</v>
+        <v>0.1284157775366698</v>
       </c>
       <c r="T7">
-        <v>0.006650096767564587</v>
+        <v>0.07840389972450439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H8">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I8">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J8">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.04131440276999</v>
+        <v>1.1961845</v>
       </c>
       <c r="N8">
-        <v>2.04131440276999</v>
+        <v>2.392369</v>
       </c>
       <c r="O8">
-        <v>0.04528724752556745</v>
+        <v>0.02404047019001854</v>
       </c>
       <c r="P8">
-        <v>0.04528724752556745</v>
+        <v>0.01736464267462396</v>
       </c>
       <c r="Q8">
-        <v>1.642672189770446</v>
+        <v>1.007443731211167</v>
       </c>
       <c r="R8">
-        <v>1.642672189770446</v>
+        <v>6.044662387267</v>
       </c>
       <c r="S8">
-        <v>0.0004115633020895831</v>
+        <v>0.0002272616331916117</v>
       </c>
       <c r="T8">
-        <v>0.0004115633020895831</v>
+        <v>0.0002081309474791071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.804712976865004</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H9">
-        <v>0.804712976865004</v>
+        <v>2.526643</v>
       </c>
       <c r="I9">
-        <v>0.009087840939267289</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J9">
-        <v>0.009087840939267289</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.30876243037822</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N9">
-        <v>9.30876243037822</v>
+        <v>104.359853</v>
       </c>
       <c r="O9">
-        <v>0.2065180296426599</v>
+        <v>0.6991284747687938</v>
       </c>
       <c r="P9">
-        <v>0.2065180296426599</v>
+        <v>0.7574799526834212</v>
       </c>
       <c r="Q9">
-        <v>7.490881926278766</v>
+        <v>29.29778800705322</v>
       </c>
       <c r="R9">
-        <v>7.490881926278766</v>
+        <v>263.680092063479</v>
       </c>
       <c r="S9">
-        <v>0.00187680300448338</v>
+        <v>0.006609067032835518</v>
       </c>
       <c r="T9">
-        <v>0.00187680300448338</v>
+        <v>0.009079082317013111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H10">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I10">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J10">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.740899846988782</v>
+        <v>0.07777066666666667</v>
       </c>
       <c r="N10">
-        <v>0.740899846988782</v>
+        <v>0.233312</v>
       </c>
       <c r="O10">
-        <v>0.01643711263522434</v>
+        <v>0.00156300586879187</v>
       </c>
       <c r="P10">
-        <v>0.01643711263522434</v>
+        <v>0.001693459291481317</v>
       </c>
       <c r="Q10">
-        <v>23.30316163544666</v>
+        <v>0.06549957017955556</v>
       </c>
       <c r="R10">
-        <v>23.30316163544666</v>
+        <v>0.589496131616</v>
       </c>
       <c r="S10">
-        <v>0.005838490607886875</v>
+        <v>1.477555403958762E-05</v>
       </c>
       <c r="T10">
-        <v>0.005838490607886875</v>
+        <v>2.029764121598526E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H11">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I11">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J11">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>32.9838404991924</v>
+        <v>0.06799000000000001</v>
       </c>
       <c r="N11">
-        <v>32.9838404991924</v>
+        <v>0.20397</v>
       </c>
       <c r="O11">
-        <v>0.7317576101965484</v>
+        <v>0.001366437675976708</v>
       </c>
       <c r="P11">
-        <v>0.7317576101965484</v>
+        <v>0.001480484894405106</v>
       </c>
       <c r="Q11">
-        <v>1037.424652784562</v>
+        <v>0.05726215252333334</v>
       </c>
       <c r="R11">
-        <v>1037.424652784562</v>
+        <v>0.51535937271</v>
       </c>
       <c r="S11">
-        <v>0.259921558560518</v>
+        <v>1.291733711705651E-05</v>
       </c>
       <c r="T11">
-        <v>0.259921558560518</v>
+        <v>1.774495044757455E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H12">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I12">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J12">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.04131440276999</v>
+        <v>3.325815666666667</v>
       </c>
       <c r="N12">
-        <v>2.04131440276999</v>
+        <v>9.977447000000002</v>
       </c>
       <c r="O12">
-        <v>0.04528724752556745</v>
+        <v>0.066841003534151</v>
       </c>
       <c r="P12">
-        <v>0.04528724752556745</v>
+        <v>0.07241976549604132</v>
       </c>
       <c r="Q12">
-        <v>64.20446659538126</v>
+        <v>2.801049624491223</v>
       </c>
       <c r="R12">
-        <v>64.20446659538126</v>
+        <v>25.20944662042101</v>
       </c>
       <c r="S12">
-        <v>0.01608610801683328</v>
+        <v>0.0006318676592957989</v>
       </c>
       <c r="T12">
-        <v>0.01608610801683328</v>
+        <v>0.000868016387744773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.4525124146766</v>
+        <v>0.8422143333333333</v>
       </c>
       <c r="H13">
-        <v>31.4525124146766</v>
+        <v>2.526643</v>
       </c>
       <c r="I13">
-        <v>0.3552017156209741</v>
+        <v>0.00945329402442259</v>
       </c>
       <c r="J13">
-        <v>0.3552017156209741</v>
+        <v>0.0119859044253909</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.30876243037822</v>
+        <v>10.302739</v>
       </c>
       <c r="N13">
-        <v>9.30876243037822</v>
+        <v>20.605478</v>
       </c>
       <c r="O13">
-        <v>0.2065180296426599</v>
+        <v>0.2070606079622679</v>
       </c>
       <c r="P13">
-        <v>0.2065180296426599</v>
+        <v>0.1495616949600272</v>
       </c>
       <c r="Q13">
-        <v>292.7839659067461</v>
+        <v>8.677114458392333</v>
       </c>
       <c r="R13">
-        <v>292.7839659067461</v>
+        <v>52.062686750354</v>
       </c>
       <c r="S13">
-        <v>0.07335555843573598</v>
+        <v>0.001957404807943016</v>
       </c>
       <c r="T13">
-        <v>0.07335555843573598</v>
+        <v>0.001792632181490354</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H14">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I14">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J14">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.740899846988782</v>
+        <v>1.1961845</v>
       </c>
       <c r="N14">
-        <v>0.740899846988782</v>
+        <v>2.392369</v>
       </c>
       <c r="O14">
-        <v>0.01643711263522434</v>
+        <v>0.02404047019001854</v>
       </c>
       <c r="P14">
-        <v>0.01643711263522434</v>
+        <v>0.01736464267462396</v>
       </c>
       <c r="Q14">
-        <v>0.8975758892267288</v>
+        <v>0.06026537002266667</v>
       </c>
       <c r="R14">
-        <v>0.8975758892267288</v>
+        <v>0.361592220136</v>
       </c>
       <c r="S14">
-        <v>0.0002248831502393482</v>
+        <v>1.359481030248949E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002248831502393482</v>
+        <v>1.245041104967428E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,173 +1346,1041 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H15">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I15">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J15">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.9838404991924</v>
+        <v>34.78661766666666</v>
       </c>
       <c r="N15">
-        <v>32.9838404991924</v>
+        <v>104.359853</v>
       </c>
       <c r="O15">
-        <v>0.7317576101965484</v>
+        <v>0.6991284747687938</v>
       </c>
       <c r="P15">
-        <v>0.7317576101965484</v>
+        <v>0.7574799526834212</v>
       </c>
       <c r="Q15">
-        <v>39.95884205739817</v>
+        <v>1.752596180203555</v>
       </c>
       <c r="R15">
-        <v>39.95884205739817</v>
+        <v>15.773365621832</v>
       </c>
       <c r="S15">
-        <v>0.01001148804200373</v>
+        <v>0.0003953549542261774</v>
       </c>
       <c r="T15">
-        <v>0.01001148804200373</v>
+        <v>0.0005431114794304654</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.21146723524741</v>
+        <v>0.05038133333333333</v>
       </c>
       <c r="H16">
-        <v>1.21146723524741</v>
+        <v>0.151144</v>
       </c>
       <c r="I16">
-        <v>0.01368142661244707</v>
+        <v>0.0005654968557201504</v>
       </c>
       <c r="J16">
-        <v>0.01368142661244707</v>
+        <v>0.0007169978261556075</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.04131440276999</v>
+        <v>0.07777066666666667</v>
       </c>
       <c r="N16">
-        <v>2.04131440276999</v>
+        <v>0.233312</v>
       </c>
       <c r="O16">
-        <v>0.04528724752556745</v>
+        <v>0.00156300586879187</v>
       </c>
       <c r="P16">
-        <v>0.04528724752556745</v>
+        <v>0.001693459291481317</v>
       </c>
       <c r="Q16">
-        <v>2.472985515794478</v>
+        <v>0.003918189880888889</v>
       </c>
       <c r="R16">
-        <v>2.472985515794478</v>
+        <v>0.035263708928</v>
       </c>
       <c r="S16">
-        <v>0.0006195941535007762</v>
+        <v>8.838749042739445E-07</v>
       </c>
       <c r="T16">
-        <v>0.0006195941535007762</v>
+        <v>1.214206630675119E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05038133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.151144</v>
+      </c>
+      <c r="I17">
+        <v>0.0005654968557201504</v>
+      </c>
+      <c r="J17">
+        <v>0.0007169978261556075</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06799000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.20397</v>
+      </c>
+      <c r="O17">
+        <v>0.001366437675976708</v>
+      </c>
+      <c r="P17">
+        <v>0.001480484894405106</v>
+      </c>
+      <c r="Q17">
+        <v>0.003425426853333334</v>
+      </c>
+      <c r="R17">
+        <v>0.03082884168</v>
+      </c>
+      <c r="S17">
+        <v>7.727162093023782E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.061504450944675E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05038133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.151144</v>
+      </c>
+      <c r="I18">
+        <v>0.0005654968557201504</v>
+      </c>
+      <c r="J18">
+        <v>0.0007169978261556075</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.325815666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.977447000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.066841003534151</v>
+      </c>
+      <c r="P18">
+        <v>0.07241976549604132</v>
+      </c>
+      <c r="Q18">
+        <v>0.1675590277075556</v>
+      </c>
+      <c r="R18">
+        <v>1.508031249368</v>
+      </c>
+      <c r="S18">
+        <v>3.779837733174185E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.192481443136049E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05038133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.151144</v>
+      </c>
+      <c r="I19">
+        <v>0.0005654968557201504</v>
+      </c>
+      <c r="J19">
+        <v>0.0007169978261556075</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10.302739</v>
+      </c>
+      <c r="N19">
+        <v>20.605478</v>
+      </c>
+      <c r="O19">
+        <v>0.2070606079622679</v>
+      </c>
+      <c r="P19">
+        <v>0.1495616949600272</v>
+      </c>
+      <c r="Q19">
+        <v>0.5190657278053333</v>
+      </c>
+      <c r="R19">
+        <v>3.114394366832</v>
+      </c>
+      <c r="S19">
+        <v>0.0001170921227461652</v>
+      </c>
+      <c r="T19">
+        <v>0.0001072354101624876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="H17">
-        <v>1.21146723524741</v>
-      </c>
-      <c r="I17">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="J17">
-        <v>0.01368142661244707</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>9.30876243037822</v>
-      </c>
-      <c r="N17">
-        <v>9.30876243037822</v>
-      </c>
-      <c r="O17">
-        <v>0.2065180296426599</v>
-      </c>
-      <c r="P17">
-        <v>0.2065180296426599</v>
-      </c>
-      <c r="Q17">
-        <v>11.27726068510526</v>
-      </c>
-      <c r="R17">
-        <v>11.27726068510526</v>
-      </c>
-      <c r="S17">
-        <v>0.002825461266703219</v>
-      </c>
-      <c r="T17">
-        <v>0.002825461266703219</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.724292</v>
+      </c>
+      <c r="H20">
+        <v>95.172876</v>
+      </c>
+      <c r="I20">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J20">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.1961845</v>
+      </c>
+      <c r="N20">
+        <v>2.392369</v>
+      </c>
+      <c r="O20">
+        <v>0.02404047019001854</v>
+      </c>
+      <c r="P20">
+        <v>0.01736464267462396</v>
+      </c>
+      <c r="Q20">
+        <v>37.948106363874</v>
+      </c>
+      <c r="R20">
+        <v>227.688638183244</v>
+      </c>
+      <c r="S20">
+        <v>0.008560427110320986</v>
+      </c>
+      <c r="T20">
+        <v>0.007839817835836552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.724292</v>
+      </c>
+      <c r="H21">
+        <v>95.172876</v>
+      </c>
+      <c r="I21">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J21">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.78661766666666</v>
+      </c>
+      <c r="N21">
+        <v>104.359853</v>
+      </c>
+      <c r="O21">
+        <v>0.6991284747687938</v>
+      </c>
+      <c r="P21">
+        <v>0.7574799526834212</v>
+      </c>
+      <c r="Q21">
+        <v>1103.580816549692</v>
+      </c>
+      <c r="R21">
+        <v>9932.227348947226</v>
+      </c>
+      <c r="S21">
+        <v>0.2489484732080246</v>
+      </c>
+      <c r="T21">
+        <v>0.3419883123776811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>31.724292</v>
+      </c>
+      <c r="H22">
+        <v>95.172876</v>
+      </c>
+      <c r="I22">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J22">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07777066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.233312</v>
+      </c>
+      <c r="O22">
+        <v>0.00156300586879187</v>
+      </c>
+      <c r="P22">
+        <v>0.001693459291481317</v>
+      </c>
+      <c r="Q22">
+        <v>2.467219338368</v>
+      </c>
+      <c r="R22">
+        <v>22.204974045312</v>
+      </c>
+      <c r="S22">
+        <v>0.0005565614027945271</v>
+      </c>
+      <c r="T22">
+        <v>0.0007645658253031608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>31.724292</v>
+      </c>
+      <c r="H23">
+        <v>95.172876</v>
+      </c>
+      <c r="I23">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J23">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06799000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.20397</v>
+      </c>
+      <c r="O23">
+        <v>0.001366437675976708</v>
+      </c>
+      <c r="P23">
+        <v>0.001480484894405106</v>
+      </c>
+      <c r="Q23">
+        <v>2.15693461308</v>
+      </c>
+      <c r="R23">
+        <v>19.41241151772</v>
+      </c>
+      <c r="S23">
+        <v>0.0004865666117816473</v>
+      </c>
+      <c r="T23">
+        <v>0.000668411789308247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31.724292</v>
+      </c>
+      <c r="H24">
+        <v>95.172876</v>
+      </c>
+      <c r="I24">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J24">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.325815666666667</v>
+      </c>
+      <c r="N24">
+        <v>9.977447000000002</v>
+      </c>
+      <c r="O24">
+        <v>0.066841003534151</v>
+      </c>
+      <c r="P24">
+        <v>0.07241976549604132</v>
+      </c>
+      <c r="Q24">
+        <v>105.509147347508</v>
+      </c>
+      <c r="R24">
+        <v>949.5823261275722</v>
+      </c>
+      <c r="S24">
+        <v>0.02380101280100486</v>
+      </c>
+      <c r="T24">
+        <v>0.03269619650928177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>31.724292</v>
+      </c>
+      <c r="H25">
+        <v>95.172876</v>
+      </c>
+      <c r="I25">
+        <v>0.3560840134430991</v>
+      </c>
+      <c r="J25">
+        <v>0.4514816678199412</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.302739</v>
+      </c>
+      <c r="N25">
+        <v>20.605478</v>
+      </c>
+      <c r="O25">
+        <v>0.2070606079622679</v>
+      </c>
+      <c r="P25">
+        <v>0.1495616949600272</v>
+      </c>
+      <c r="Q25">
+        <v>326.847100435788</v>
+      </c>
+      <c r="R25">
+        <v>1961.082602614728</v>
+      </c>
+      <c r="S25">
+        <v>0.07373097230917249</v>
+      </c>
+      <c r="T25">
+        <v>0.06752436348253037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.2216945</v>
+      </c>
+      <c r="H26">
+        <v>2.443389</v>
+      </c>
+      <c r="I26">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J26">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.1961845</v>
+      </c>
+      <c r="N26">
+        <v>2.392369</v>
+      </c>
+      <c r="O26">
+        <v>0.02404047019001854</v>
+      </c>
+      <c r="P26">
+        <v>0.01736464267462396</v>
+      </c>
+      <c r="Q26">
+        <v>1.46137202463525</v>
+      </c>
+      <c r="R26">
+        <v>5.845488098541</v>
+      </c>
+      <c r="S26">
+        <v>0.0003296598933817038</v>
+      </c>
+      <c r="T26">
+        <v>0.0002012729410644986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2216945</v>
+      </c>
+      <c r="H27">
+        <v>2.443389</v>
+      </c>
+      <c r="I27">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J27">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>34.78661766666666</v>
+      </c>
+      <c r="N27">
+        <v>104.359853</v>
+      </c>
+      <c r="O27">
+        <v>0.6991284747687938</v>
+      </c>
+      <c r="P27">
+        <v>0.7574799526834212</v>
+      </c>
+      <c r="Q27">
+        <v>42.49861947696949</v>
+      </c>
+      <c r="R27">
+        <v>254.9917168618169</v>
+      </c>
+      <c r="S27">
+        <v>0.009586943043571813</v>
+      </c>
+      <c r="T27">
+        <v>0.008779922554743327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.2216945</v>
+      </c>
+      <c r="H28">
+        <v>2.443389</v>
+      </c>
+      <c r="I28">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J28">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.07777066666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.233312</v>
+      </c>
+      <c r="O28">
+        <v>0.00156300586879187</v>
+      </c>
+      <c r="P28">
+        <v>0.001693459291481317</v>
+      </c>
+      <c r="Q28">
+        <v>0.095011995728</v>
+      </c>
+      <c r="R28">
+        <v>0.5700719743679999</v>
+      </c>
+      <c r="S28">
+        <v>2.143303953659102E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.962882499549204E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.2216945</v>
+      </c>
+      <c r="H29">
+        <v>2.443389</v>
+      </c>
+      <c r="I29">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J29">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06799000000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.20397</v>
+      </c>
+      <c r="O29">
+        <v>0.001366437675976708</v>
+      </c>
+      <c r="P29">
+        <v>0.001480484894405106</v>
+      </c>
+      <c r="Q29">
+        <v>0.083063009055</v>
+      </c>
+      <c r="R29">
+        <v>0.49837805433</v>
+      </c>
+      <c r="S29">
+        <v>1.873755775218793E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.71602465125262E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.2216945</v>
+      </c>
+      <c r="H30">
+        <v>2.443389</v>
+      </c>
+      <c r="I30">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J30">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.325815666666667</v>
+      </c>
+      <c r="N30">
+        <v>9.977447000000002</v>
+      </c>
+      <c r="O30">
+        <v>0.066841003534151</v>
+      </c>
+      <c r="P30">
+        <v>0.07241976549604132</v>
+      </c>
+      <c r="Q30">
+        <v>4.0631307079805</v>
+      </c>
+      <c r="R30">
+        <v>24.378784247883</v>
+      </c>
+      <c r="S30">
+        <v>0.0009165710123150181</v>
+      </c>
+      <c r="T30">
+        <v>0.0008394148653511055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2216945</v>
+      </c>
+      <c r="H31">
+        <v>2.443389</v>
+      </c>
+      <c r="I31">
+        <v>0.01371270573229373</v>
+      </c>
+      <c r="J31">
+        <v>0.01159096359400653</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.302739</v>
+      </c>
+      <c r="N31">
+        <v>20.605478</v>
+      </c>
+      <c r="O31">
+        <v>0.2070606079622679</v>
+      </c>
+      <c r="P31">
+        <v>0.1495616949600272</v>
+      </c>
+      <c r="Q31">
+        <v>12.5867995712355</v>
+      </c>
+      <c r="R31">
+        <v>50.347198284942</v>
+      </c>
+      <c r="S31">
+        <v>0.002839361185736416</v>
+      </c>
+      <c r="T31">
+        <v>0.001733564161339586</v>
       </c>
     </row>
   </sheetData>
